--- a/gammaCM_Automation/Regression_Suite.xlsx
+++ b/gammaCM_Automation/Regression_Suite.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VC00478545\ATT\eclipseWorkspace_97\gammaCM_Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14280" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="TestData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A3:G22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>RunMode</t>
   </si>
@@ -168,13 +164,16 @@
   <si>
     <t xml:space="preserve">test_Verify_Masterlist_Management_Create
 </t>
+  </si>
+  <si>
+    <t>test_Verify_DigicelLogin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,12 +235,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -324,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +369,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +403,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -582,7 +593,7 @@
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -596,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -610,7 +621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -624,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -638,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -652,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -666,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -680,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -694,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -708,12 +719,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -722,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -736,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -750,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -764,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -778,12 +789,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -792,12 +803,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
@@ -806,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -820,12 +831,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -834,12 +845,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -848,17 +859,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
         <v>2</v>
       </c>
     </row>
@@ -872,21 +897,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:7">
       <c r="E5" s="8" t="s">
         <v>29</v>
       </c>
@@ -897,7 +922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="5:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:7" ht="105">
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
@@ -908,7 +933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="5:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:7" ht="45">
       <c r="E7" s="7" t="s">
         <v>45</v>
       </c>
@@ -919,7 +944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:7" ht="30">
       <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
@@ -928,7 +953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:7" ht="75">
       <c r="E9" s="7" t="s">
         <v>47</v>
       </c>
@@ -937,7 +962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:7" ht="30">
       <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
@@ -948,7 +973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:7" ht="30">
       <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
@@ -959,7 +984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:7" ht="45">
       <c r="E12" s="7" t="s">
         <v>32</v>
       </c>
@@ -980,14 +1005,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -995,7 +1020,7 @@
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
